--- a/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/dataset_eventos_excel.xlsx
+++ b/03_Data_Analysis/Sprint_05/Unidad_02_Procesado_Datos_Internos_Ficheros/02_Ejercicios_Workout/data/dataset_eventos_excel.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>lugar</t>
+          <t>lugares</t>
         </is>
       </c>
     </row>
